--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="582" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{124C37E7-2C39-4FDE-B888-8376C99DC085}"/>
+  <xr:revisionPtr revIDLastSave="599" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2936662-44B1-42B7-AA31-9803953D832A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="fluttre" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="668">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -2675,6 +2675,40 @@
   </si>
   <si>
     <t>الدقيقة 9.8</t>
+  </si>
+  <si>
+    <t>Card(   )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card(   ) </t>
+  </si>
+  <si>
+    <t>لصناعة مربع على شكل بطاقة</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> shape: ContinuousRectangleBorder(
+          borderRadius: BorderRadius.circular(28.0),</t>
+  </si>
+  <si>
+    <t>لجعل زوايا الكرد مائلة</t>
+  </si>
+  <si>
+    <t>color:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> margin: EdgeInsets.all(30),</t>
+  </si>
+  <si>
+    <t>مسافة خارجية خارج الودجت</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crossAxisAlignment: CrossAxisAlignment.stretch,</t>
+  </si>
+  <si>
+    <t>لجعل عرض الوجدت استرتيش</t>
+  </si>
+  <si>
+    <t>الدقيقة 16.3</t>
   </si>
 </sst>
 </file>
@@ -2952,40 +2986,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3307,10 +3341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
-  <dimension ref="A1:C298"/>
+  <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3321,10 +3355,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -3420,11 +3454,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -3457,11 +3491,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -3488,7 +3522,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="29"/>
@@ -3550,10 +3584,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="32"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -3588,10 +3622,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="25"/>
+      <c r="B49" s="32"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -3610,10 +3644,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="25"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3663,10 +3697,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="24"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -3743,11 +3777,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -3805,11 +3839,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -3855,11 +3889,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -3886,11 +3920,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -3957,10 +3991,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="24" t="s">
+      <c r="A108" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="24"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -4002,11 +4036,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -4040,12 +4074,20 @@
         <v>114</v>
       </c>
     </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="24" t="s">
+      <c r="A122" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="24"/>
-      <c r="C122" s="24"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -4088,11 +4130,11 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="24" t="s">
+      <c r="A129" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -4119,11 +4161,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="24" t="s">
+      <c r="A134" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -4158,11 +4200,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="24" t="s">
+      <c r="A141" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24"/>
+      <c r="B141" s="30"/>
+      <c r="C141" s="30"/>
     </row>
     <row r="142" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -4181,11 +4223,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="24" t="s">
+      <c r="A146" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="24"/>
-      <c r="C146" s="24"/>
+      <c r="B146" s="30"/>
+      <c r="C146" s="30"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -4221,11 +4263,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="32" t="s">
+      <c r="A153" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="32"/>
-      <c r="C153" s="32"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="31"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -4268,11 +4310,11 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="25" t="s">
+      <c r="A160" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B160" s="25"/>
-      <c r="C160" s="25"/>
+      <c r="B160" s="32"/>
+      <c r="C160" s="32"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -4307,11 +4349,11 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="25" t="s">
+      <c r="A166" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="B166" s="25"/>
-      <c r="C166" s="25"/>
+      <c r="B166" s="32"/>
+      <c r="C166" s="32"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
@@ -4346,11 +4388,11 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="25" t="s">
+      <c r="A172" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="25"/>
-      <c r="C172" s="25"/>
+      <c r="B172" s="32"/>
+      <c r="C172" s="32"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -4393,11 +4435,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="24" t="s">
+      <c r="A179" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="24"/>
-      <c r="C179" s="24"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="30"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -4421,11 +4463,11 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="24" t="s">
+      <c r="A186" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="B186" s="24"/>
-      <c r="C186" s="24"/>
+      <c r="B186" s="30"/>
+      <c r="C186" s="30"/>
     </row>
     <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
@@ -4479,11 +4521,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="32" t="s">
+      <c r="A194" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="32"/>
-      <c r="C194" s="32"/>
+      <c r="B194" s="31"/>
+      <c r="C194" s="31"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -4510,11 +4552,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="24" t="s">
+      <c r="A200" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="24"/>
-      <c r="C200" s="24"/>
+      <c r="B200" s="30"/>
+      <c r="C200" s="30"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -4549,11 +4591,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="24" t="s">
+      <c r="A206" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="24"/>
-      <c r="C206" s="24"/>
+      <c r="B206" s="30"/>
+      <c r="C206" s="30"/>
     </row>
     <row r="207" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -4572,11 +4614,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="24" t="s">
+      <c r="A211" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="24"/>
-      <c r="C211" s="24"/>
+      <c r="B211" s="30"/>
+      <c r="C211" s="30"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -4622,7 +4664,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="26" t="s">
+      <c r="B217" s="25" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4630,7 +4672,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="26"/>
+      <c r="B218" s="25"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -4670,11 +4712,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="24" t="s">
+      <c r="A225" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="B225" s="24"/>
-      <c r="C225" s="24"/>
+      <c r="B225" s="30"/>
+      <c r="C225" s="30"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
@@ -4749,11 +4791,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="25" t="s">
+      <c r="A237" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="25"/>
-      <c r="C237" s="25"/>
+      <c r="B237" s="32"/>
+      <c r="C237" s="32"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
@@ -4828,11 +4870,11 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="24" t="s">
+      <c r="A248" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="B248" s="24"/>
-      <c r="C248" s="24"/>
+      <c r="B248" s="30"/>
+      <c r="C248" s="30"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -4851,11 +4893,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="24" t="s">
+      <c r="A253" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="B253" s="24"/>
-      <c r="C253" s="24"/>
+      <c r="B253" s="30"/>
+      <c r="C253" s="30"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -4882,11 +4924,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="24" t="s">
+      <c r="A258" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="B258" s="24"/>
-      <c r="C258" s="24"/>
+      <c r="B258" s="30"/>
+      <c r="C258" s="30"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
@@ -4913,16 +4955,16 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="24" t="s">
+      <c r="A263" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B263" s="24"/>
+      <c r="B263" s="30"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="25" t="s">
+      <c r="A264" s="32" t="s">
         <v>501</v>
       </c>
-      <c r="B264" s="25"/>
+      <c r="B264" s="32"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
@@ -4931,7 +4973,7 @@
       <c r="B265" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C265" s="26" t="s">
+      <c r="C265" s="25" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4942,7 +4984,7 @@
       <c r="B266" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C266" s="30"/>
+      <c r="C266" s="26"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
@@ -4951,7 +4993,7 @@
       <c r="B267" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C267" s="30"/>
+      <c r="C267" s="26"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -4962,10 +5004,10 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="28" t="s">
+      <c r="A270" s="27" t="s">
         <v>539</v>
       </c>
-      <c r="B270" s="31"/>
+      <c r="B270" s="28"/>
       <c r="C270" s="29"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -5016,11 +5058,11 @@
       <c r="A276" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="24" t="s">
+      <c r="A279" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="B279" s="24"/>
-      <c r="C279" s="24"/>
+      <c r="B279" s="30"/>
+      <c r="C279" s="30"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -5058,11 +5100,11 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="24" t="s">
+      <c r="A285" s="30" t="s">
         <v>585</v>
       </c>
-      <c r="B285" s="24"/>
-      <c r="C285" s="24"/>
+      <c r="B285" s="30"/>
+      <c r="C285" s="30"/>
     </row>
     <row r="286" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
@@ -5089,11 +5131,11 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="24" t="s">
+      <c r="A290" s="30" t="s">
         <v>592</v>
       </c>
-      <c r="B290" s="24"/>
-      <c r="C290" s="24"/>
+      <c r="B290" s="30"/>
+      <c r="C290" s="30"/>
     </row>
     <row r="291" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
@@ -5120,11 +5162,11 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="24" t="s">
+      <c r="A295" s="30" t="s">
         <v>613</v>
       </c>
-      <c r="B295" s="24"/>
-      <c r="C295" s="24"/>
+      <c r="B295" s="30"/>
+      <c r="C295" s="30"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
@@ -5150,35 +5192,64 @@
         <v>212</v>
       </c>
     </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="B301" s="30"/>
+      <c r="C301" s="30"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A108:B108"/>
+  <mergeCells count="44">
+    <mergeCell ref="A301:C301"/>
     <mergeCell ref="A295:C295"/>
     <mergeCell ref="A225:C225"/>
     <mergeCell ref="A200:C200"/>
@@ -5195,6 +5266,33 @@
     <mergeCell ref="A248:C248"/>
     <mergeCell ref="A253:C253"/>
     <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A194:C194"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -5211,7 +5309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
   <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A229" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A226" workbookViewId="0">
       <selection activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
@@ -5232,11 +5330,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="5" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -5311,11 +5409,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
@@ -5431,11 +5529,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -5478,11 +5576,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
     </row>
     <row r="40" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
@@ -5557,11 +5655,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
     </row>
     <row r="51" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
@@ -5569,11 +5667,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
     </row>
     <row r="54" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -5656,10 +5754,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="34" t="s">
         <v>644</v>
       </c>
-      <c r="B64" s="33"/>
+      <c r="B64" s="34"/>
     </row>
     <row r="65" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
@@ -5678,18 +5776,18 @@
       <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="31" t="s">
         <v>645</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="35" t="s">
         <v>648</v>
       </c>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
     </row>
     <row r="70" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
@@ -5704,11 +5802,11 @@
       <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="34" t="s">
+      <c r="A72" s="35" t="s">
         <v>649</v>
       </c>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
@@ -5731,11 +5829,11 @@
       <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="35" t="s">
         <v>651</v>
       </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
     </row>
     <row r="79" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
@@ -5748,11 +5846,11 @@
       <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="35" t="s">
         <v>652</v>
       </c>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
     </row>
     <row r="82" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
@@ -5783,9 +5881,9 @@
       <c r="B87" s="3"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="35"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
@@ -5816,11 +5914,11 @@
       <c r="B95" s="3"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
     </row>
     <row r="100" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
@@ -5831,24 +5929,24 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="24" t="s">
+      <c r="A103" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
     </row>
     <row r="104" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="26" t="s">
+      <c r="A104" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="B104" s="26"/>
+      <c r="B104" s="25"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="24" t="s">
+      <c r="A106" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
     </row>
     <row r="107" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
@@ -5875,11 +5973,11 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
@@ -5898,11 +5996,11 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="32"/>
     </row>
     <row r="117" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
@@ -5921,11 +6019,11 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="25" t="s">
+      <c r="A120" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
     </row>
     <row r="121" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
@@ -5944,11 +6042,11 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="25" t="s">
+      <c r="A125" s="32" t="s">
         <v>431</v>
       </c>
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
     </row>
     <row r="126" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
@@ -5991,11 +6089,11 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="24" t="s">
+      <c r="A133" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
@@ -6030,11 +6128,11 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="25" t="s">
+      <c r="A140" s="32" t="s">
         <v>451</v>
       </c>
-      <c r="B140" s="25"/>
-      <c r="C140" s="25"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
     </row>
     <row r="141" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
@@ -6053,11 +6151,11 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="24" t="s">
+      <c r="A144" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="B144" s="24"/>
-      <c r="C144" s="24"/>
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
     </row>
     <row r="145" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
@@ -6073,11 +6171,11 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="24" t="s">
+      <c r="A148" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24"/>
+      <c r="B148" s="30"/>
+      <c r="C148" s="30"/>
     </row>
     <row r="149" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
@@ -6110,11 +6208,11 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="25" t="s">
+      <c r="A154" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="B154" s="25"/>
-      <c r="C154" s="25"/>
+      <c r="B154" s="32"/>
+      <c r="C154" s="32"/>
     </row>
     <row r="155" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
@@ -6160,11 +6258,11 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="25" t="s">
+      <c r="A161" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="B161" s="25"/>
-      <c r="C161" s="25"/>
+      <c r="B161" s="32"/>
+      <c r="C161" s="32"/>
     </row>
     <row r="162" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
@@ -6199,11 +6297,11 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="24" t="s">
+      <c r="A168" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="B168" s="24"/>
-      <c r="C168" s="24"/>
+      <c r="B168" s="30"/>
+      <c r="C168" s="30"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
@@ -6246,11 +6344,11 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="24" t="s">
+      <c r="A178" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="B178" s="24"/>
-      <c r="C178" s="24"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="30"/>
     </row>
     <row r="179" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
@@ -6277,11 +6375,11 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="24" t="s">
+      <c r="A183" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="B183" s="24"/>
-      <c r="C183" s="24"/>
+      <c r="B183" s="30"/>
+      <c r="C183" s="30"/>
     </row>
     <row r="184" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
@@ -6324,11 +6422,11 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="24" t="s">
+      <c r="A190" s="30" t="s">
         <v>562</v>
       </c>
-      <c r="B190" s="24"/>
-      <c r="C190" s="24"/>
+      <c r="B190" s="30"/>
+      <c r="C190" s="30"/>
     </row>
     <row r="191" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
@@ -6411,11 +6509,11 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="25" t="s">
+      <c r="A201" s="32" t="s">
         <v>583</v>
       </c>
-      <c r="B201" s="25"/>
-      <c r="C201" s="25"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="32"/>
     </row>
     <row r="202" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
@@ -6423,11 +6521,11 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="24" t="s">
+      <c r="A205" s="30" t="s">
         <v>599</v>
       </c>
-      <c r="B205" s="24"/>
-      <c r="C205" s="24"/>
+      <c r="B205" s="30"/>
+      <c r="C205" s="30"/>
     </row>
     <row r="206" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
@@ -6483,11 +6581,11 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="24" t="s">
+      <c r="A215" s="30" t="s">
         <v>613</v>
       </c>
-      <c r="B215" s="24"/>
-      <c r="C215" s="24"/>
+      <c r="B215" s="30"/>
+      <c r="C215" s="30"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
@@ -6514,11 +6612,11 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="24" t="s">
+      <c r="A220" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="B220" s="24"/>
-      <c r="C220" s="24"/>
+      <c r="B220" s="30"/>
+      <c r="C220" s="30"/>
     </row>
     <row r="221" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
@@ -6569,11 +6667,11 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="24" t="s">
+      <c r="A228" s="30" t="s">
         <v>632</v>
       </c>
-      <c r="B228" s="24"/>
-      <c r="C228" s="24"/>
+      <c r="B228" s="30"/>
+      <c r="C228" s="30"/>
     </row>
     <row r="229" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
@@ -6631,6 +6729,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A50:C50"/>
     <mergeCell ref="A228:C228"/>
     <mergeCell ref="A144:C144"/>
     <mergeCell ref="A140:C140"/>
@@ -6647,25 +6764,6 @@
     <mergeCell ref="A183:C183"/>
     <mergeCell ref="A190:C190"/>
     <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A81:C81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="599" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2936662-44B1-42B7-AA31-9803953D832A}"/>
+  <xr:revisionPtr revIDLastSave="603" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C3EC679-A0E3-458C-8AB3-9114A64389ED}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="fluttre" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="671">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -2674,9 +2674,6 @@
     <t>الدرس 12</t>
   </si>
   <si>
-    <t>الدقيقة 9.8</t>
-  </si>
-  <si>
     <t>Card(   )</t>
   </si>
   <si>
@@ -2709,6 +2706,18 @@
   </si>
   <si>
     <t>الدقيقة 16.3</t>
+  </si>
+  <si>
+    <t>mainAxisAlignment : MainAxisAlignment.spaceBetween,</t>
+  </si>
+  <si>
+    <t>لترك مسافات بين عناصر الرو</t>
+  </si>
+  <si>
+    <t>الدرس.1 12</t>
+  </si>
+  <si>
+    <t>الدقيقة 5.38</t>
   </si>
 </sst>
 </file>
@@ -2989,21 +2998,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3015,6 +3009,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3343,8 +3352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
   <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="B309" sqref="B309"/>
+    <sheetView rightToLeft="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3355,10 +3364,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -3454,11 +3463,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -3491,11 +3500,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -3522,10 +3531,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="30"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -3584,10 +3593,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="32"/>
+      <c r="B36" s="27"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -3622,10 +3631,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="32"/>
+      <c r="B49" s="27"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -3644,10 +3653,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="32"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3697,10 +3706,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="30"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -3777,11 +3786,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -3839,11 +3848,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -3889,11 +3898,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -3920,11 +3929,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="30" t="s">
+      <c r="A99" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -3991,10 +4000,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="30" t="s">
+      <c r="A108" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="30"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -4036,11 +4045,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="30" t="s">
+      <c r="A115" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -4076,18 +4085,18 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="30" t="s">
+      <c r="A122" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="30"/>
-      <c r="C122" s="30"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -4130,11 +4139,11 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="30" t="s">
+      <c r="A129" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="30"/>
-      <c r="C129" s="30"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -4161,11 +4170,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="30" t="s">
+      <c r="A134" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="30"/>
-      <c r="C134" s="30"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="25"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -4199,12 +4208,20 @@
         <v>114</v>
       </c>
     </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="30" t="s">
+      <c r="A141" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="30"/>
-      <c r="C141" s="30"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
     </row>
     <row r="142" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -4223,11 +4240,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="30" t="s">
+      <c r="A146" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="30"/>
-      <c r="C146" s="30"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="25"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -4263,11 +4280,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="31" t="s">
+      <c r="A153" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="26"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -4310,11 +4327,11 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="32" t="s">
+      <c r="A160" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B160" s="32"/>
-      <c r="C160" s="32"/>
+      <c r="B160" s="27"/>
+      <c r="C160" s="27"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -4349,11 +4366,11 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="32" t="s">
+      <c r="A166" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B166" s="32"/>
-      <c r="C166" s="32"/>
+      <c r="B166" s="27"/>
+      <c r="C166" s="27"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
@@ -4388,11 +4405,11 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="32" t="s">
+      <c r="A172" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="32"/>
-      <c r="C172" s="32"/>
+      <c r="B172" s="27"/>
+      <c r="C172" s="27"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -4435,11 +4452,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="30" t="s">
+      <c r="A179" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="30"/>
-      <c r="C179" s="30"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="25"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -4463,11 +4480,11 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="30" t="s">
+      <c r="A186" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="B186" s="30"/>
-      <c r="C186" s="30"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="25"/>
     </row>
     <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
@@ -4521,11 +4538,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="31" t="s">
+      <c r="A194" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="31"/>
-      <c r="C194" s="31"/>
+      <c r="B194" s="26"/>
+      <c r="C194" s="26"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -4552,11 +4569,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="30" t="s">
+      <c r="A200" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="30"/>
-      <c r="C200" s="30"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="25"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -4591,11 +4608,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="30" t="s">
+      <c r="A206" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="30"/>
-      <c r="C206" s="30"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="25"/>
     </row>
     <row r="207" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -4614,11 +4631,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="30" t="s">
+      <c r="A211" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="30"/>
-      <c r="C211" s="30"/>
+      <c r="B211" s="25"/>
+      <c r="C211" s="25"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -4664,7 +4681,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="25" t="s">
+      <c r="B217" s="31" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4672,7 +4689,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="25"/>
+      <c r="B218" s="31"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -4712,11 +4729,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="30" t="s">
+      <c r="A225" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="B225" s="30"/>
-      <c r="C225" s="30"/>
+      <c r="B225" s="25"/>
+      <c r="C225" s="25"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
@@ -4791,11 +4808,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="32" t="s">
+      <c r="A237" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="32"/>
-      <c r="C237" s="32"/>
+      <c r="B237" s="27"/>
+      <c r="C237" s="27"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
@@ -4870,11 +4887,11 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="30" t="s">
+      <c r="A248" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="B248" s="30"/>
-      <c r="C248" s="30"/>
+      <c r="B248" s="25"/>
+      <c r="C248" s="25"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -4893,11 +4910,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="30" t="s">
+      <c r="A253" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="B253" s="30"/>
-      <c r="C253" s="30"/>
+      <c r="B253" s="25"/>
+      <c r="C253" s="25"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -4924,11 +4941,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="30" t="s">
+      <c r="A258" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="B258" s="30"/>
-      <c r="C258" s="30"/>
+      <c r="B258" s="25"/>
+      <c r="C258" s="25"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
@@ -4955,16 +4972,16 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="30" t="s">
+      <c r="A263" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B263" s="30"/>
+      <c r="B263" s="25"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="32" t="s">
+      <c r="A264" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="B264" s="32"/>
+      <c r="B264" s="27"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
@@ -4973,7 +4990,7 @@
       <c r="B265" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C265" s="25" t="s">
+      <c r="C265" s="31" t="s">
         <v>503</v>
       </c>
     </row>
@@ -4984,7 +5001,7 @@
       <c r="B266" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C266" s="26"/>
+      <c r="C266" s="32"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
@@ -4993,7 +5010,7 @@
       <c r="B267" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C267" s="26"/>
+      <c r="C267" s="32"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -5004,11 +5021,11 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="27" t="s">
+      <c r="A270" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="B270" s="28"/>
-      <c r="C270" s="29"/>
+      <c r="B270" s="33"/>
+      <c r="C270" s="30"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
@@ -5058,11 +5075,11 @@
       <c r="A276" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="30" t="s">
+      <c r="A279" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B279" s="30"/>
-      <c r="C279" s="30"/>
+      <c r="B279" s="25"/>
+      <c r="C279" s="25"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -5100,11 +5117,11 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="30" t="s">
+      <c r="A285" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="B285" s="30"/>
-      <c r="C285" s="30"/>
+      <c r="B285" s="25"/>
+      <c r="C285" s="25"/>
     </row>
     <row r="286" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
@@ -5131,11 +5148,11 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="30" t="s">
+      <c r="A290" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="B290" s="30"/>
-      <c r="C290" s="30"/>
+      <c r="B290" s="25"/>
+      <c r="C290" s="25"/>
     </row>
     <row r="291" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
@@ -5162,11 +5179,11 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="30" t="s">
+      <c r="A295" s="25" t="s">
         <v>613</v>
       </c>
-      <c r="B295" s="30"/>
-      <c r="C295" s="30"/>
+      <c r="B295" s="25"/>
+      <c r="C295" s="25"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
@@ -5193,18 +5210,18 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="30" t="s">
-        <v>657</v>
-      </c>
-      <c r="B301" s="30"/>
-      <c r="C301" s="30"/>
+      <c r="A301" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="B301" s="25"/>
+      <c r="C301" s="25"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -5217,15 +5234,15 @@
     </row>
     <row r="304" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>319</v>
@@ -5233,15 +5250,15 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>655</v>
@@ -5249,16 +5266,12 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B217:B218"/>
     <mergeCell ref="A301:C301"/>
     <mergeCell ref="A295:C295"/>
     <mergeCell ref="A225:C225"/>
     <mergeCell ref="A200:C200"/>
     <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="B217:B218"/>
     <mergeCell ref="A285:C285"/>
     <mergeCell ref="A290:C290"/>
     <mergeCell ref="A279:C279"/>
@@ -5266,6 +5279,9 @@
     <mergeCell ref="A248:C248"/>
     <mergeCell ref="A253:C253"/>
     <mergeCell ref="A264:B264"/>
+    <mergeCell ref="C265:C267"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A263:B263"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A122:C122"/>
     <mergeCell ref="A1:B1"/>
@@ -5281,9 +5297,6 @@
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A115:C115"/>
     <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C265:C267"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A263:B263"/>
     <mergeCell ref="A129:C129"/>
     <mergeCell ref="A134:C134"/>
     <mergeCell ref="A211:C211"/>
@@ -5293,6 +5306,10 @@
     <mergeCell ref="A141:C141"/>
     <mergeCell ref="A186:C186"/>
     <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A206:C206"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2A6EAF1E-5314-48F7-97DC-5AEAEB3A8012}"/>
@@ -5309,8 +5326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
   <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C237" sqref="C237"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5330,11 +5347,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="5" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -5409,11 +5426,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
@@ -5529,11 +5546,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -5576,11 +5593,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
@@ -5655,11 +5672,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" spans="1:3" ht="252" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
@@ -5667,11 +5684,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -5776,11 +5793,11 @@
       <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="26" t="s">
         <v>645</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
@@ -5914,11 +5931,11 @@
       <c r="B95" s="3"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="30" t="s">
+      <c r="A99" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
     </row>
     <row r="100" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
@@ -5929,24 +5946,24 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
     </row>
     <row r="104" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="B104" s="25"/>
+      <c r="B104" s="31"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="B106" s="30"/>
-      <c r="C106" s="30"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
     </row>
     <row r="107" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
@@ -5973,11 +5990,11 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="32" t="s">
+      <c r="A111" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
@@ -5996,11 +6013,11 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="32" t="s">
+      <c r="A116" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="B116" s="32"/>
-      <c r="C116" s="32"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
     </row>
     <row r="117" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
@@ -6019,11 +6036,11 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="32" t="s">
+      <c r="A120" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
     </row>
     <row r="121" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
@@ -6042,11 +6059,11 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="32" t="s">
+      <c r="A125" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
     </row>
     <row r="126" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
@@ -6089,11 +6106,11 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="30" t="s">
+      <c r="A133" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="25"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
@@ -6128,11 +6145,11 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="32" t="s">
+      <c r="A140" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="27"/>
     </row>
     <row r="141" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
@@ -6151,11 +6168,11 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="30" t="s">
+      <c r="A144" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="25"/>
     </row>
     <row r="145" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
@@ -6171,11 +6188,11 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="30" t="s">
+      <c r="A148" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
     </row>
     <row r="149" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
@@ -6208,11 +6225,11 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="32" t="s">
+      <c r="A154" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="B154" s="32"/>
-      <c r="C154" s="32"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="27"/>
     </row>
     <row r="155" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
@@ -6258,11 +6275,11 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="32" t="s">
+      <c r="A161" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="B161" s="32"/>
-      <c r="C161" s="32"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="27"/>
     </row>
     <row r="162" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
@@ -6297,11 +6314,11 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="30" t="s">
+      <c r="A168" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="B168" s="30"/>
-      <c r="C168" s="30"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="25"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
@@ -6344,11 +6361,11 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="30" t="s">
+      <c r="A178" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="B178" s="30"/>
-      <c r="C178" s="30"/>
+      <c r="B178" s="25"/>
+      <c r="C178" s="25"/>
     </row>
     <row r="179" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
@@ -6375,11 +6392,11 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="30" t="s">
+      <c r="A183" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="B183" s="30"/>
-      <c r="C183" s="30"/>
+      <c r="B183" s="25"/>
+      <c r="C183" s="25"/>
     </row>
     <row r="184" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
@@ -6422,11 +6439,11 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="30" t="s">
+      <c r="A190" s="25" t="s">
         <v>562</v>
       </c>
-      <c r="B190" s="30"/>
-      <c r="C190" s="30"/>
+      <c r="B190" s="25"/>
+      <c r="C190" s="25"/>
     </row>
     <row r="191" spans="1:3" ht="126" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
@@ -6509,11 +6526,11 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="32" t="s">
+      <c r="A201" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="B201" s="32"/>
-      <c r="C201" s="32"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="27"/>
     </row>
     <row r="202" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
@@ -6521,11 +6538,11 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="30" t="s">
+      <c r="A205" s="25" t="s">
         <v>599</v>
       </c>
-      <c r="B205" s="30"/>
-      <c r="C205" s="30"/>
+      <c r="B205" s="25"/>
+      <c r="C205" s="25"/>
     </row>
     <row r="206" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
@@ -6581,11 +6598,11 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="30" t="s">
+      <c r="A215" s="25" t="s">
         <v>613</v>
       </c>
-      <c r="B215" s="30"/>
-      <c r="C215" s="30"/>
+      <c r="B215" s="25"/>
+      <c r="C215" s="25"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
@@ -6612,11 +6629,11 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="30" t="s">
+      <c r="A220" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="B220" s="30"/>
-      <c r="C220" s="30"/>
+      <c r="B220" s="25"/>
+      <c r="C220" s="25"/>
     </row>
     <row r="221" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
@@ -6667,11 +6684,11 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="30" t="s">
+      <c r="A228" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="B228" s="30"/>
-      <c r="C228" s="30"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="25"/>
     </row>
     <row r="229" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
@@ -6721,10 +6738,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="603" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C3EC679-A0E3-458C-8AB3-9114A64389ED}"/>
+  <xr:revisionPtr revIDLastSave="638" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F4AC39-8F8F-4A55-B892-266FC5F1BFC5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="687">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -2714,10 +2714,112 @@
     <t>لترك مسافات بين عناصر الرو</t>
   </si>
   <si>
-    <t>الدرس.1 12</t>
-  </si>
-  <si>
-    <t>الدقيقة 5.38</t>
+    <t>Column(children: 
+        nn.map((e) =&gt; Fahad()).toList()
+      ),</t>
+  </si>
+  <si>
+    <t>او امسح الثلاث نقاطي الي في البداية
+وامسح اقواس الأبناء وحط بعد الماب 
+.tolist()</t>
+  </si>
+  <si>
+    <t>طريقة اخرئ لاستدعاء الكلاس الجديد مع الفونكشن</t>
+  </si>
+  <si>
+    <t>class Bb {
+  String titl;
+  String hh;
+  Bb({required this.hh, required this.titl});
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هذا الكلاس الجديد الذي صنعناه </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> final Bb e;</t>
+  </si>
+  <si>
+    <t>في الصفحة الام</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List nn = [
+    Bb(titl: "aaaaaaaaa", hh: "false"),
+    Bb(titl: "bbbbbbbbbbbb", hh: "false")
+  ];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استدعاء الكلاس الجديد مع حرف e
+ الذي يمثل كل عناصر اليست
+</t>
+  </si>
+  <si>
+    <t>" List nn = [
+    Bb(titl: ""aaaaaaaaa"", hh: ""false""),
+    Bb(titl: ""bbbbbbbbbbbb"", hh: ""false"")
+  ];"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> nn.map((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =&gt; dd(delet: delet, e: e)).toList()),</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">وهنا حرف e الذي يمثل كل عناصر اليست
+والي بعده dd هو الكلاس حق الصفخه الفرعية
+والي بعده delet هو الفونكشن 
+والي بعده e يمثل كل عناصر اليست 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Text(
+                  e.hh,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صار عندي الكلاس الي صنعها ل محضر في الصفحه
+الفرعية
+ونستخدمه في أي شي  مثل التكست نستخدم 
+عناصر اليست </t>
+  </si>
+  <si>
+    <t>onPressed: () {
+                    delet(e);
+                  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ونستخدمة أيضا في الفونكشن
+فحرف  e يمثل كل غناصر اليست
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاحضار الكلاس الي صنعته او الدالة الي صنعتها للصفحه الفرعية يعني انك احضرت عناصر اليست كامله 
+كل الي عليك تحط دالة الماب راجع السطر 63
+وتستخدم القيمة التي تمثل عناصر اليست فقط
+</t>
+  </si>
+  <si>
+    <t>الدرس 12.2</t>
   </si>
 </sst>
 </file>
@@ -3352,7 +3454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
   <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A128" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A141" sqref="A141:C141"/>
     </sheetView>
   </sheetViews>
@@ -5324,10 +5426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6224,6 +6326,14 @@
         <v>478</v>
       </c>
     </row>
+    <row r="152" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="27" t="s">
         <v>479</v>
@@ -6737,15 +6847,76 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>669</v>
+      <c r="A237" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="B237" s="25"/>
+      <c r="C237" s="25"/>
+    </row>
+    <row r="238" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="56" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="B243" s="32"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B245" s="1" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A243:B243"/>
     <mergeCell ref="A133:C133"/>
     <mergeCell ref="A168:C168"/>
     <mergeCell ref="A53:C53"/>

--- a/fluttre .xlsx
+++ b/fluttre .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="638" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83F4AC39-8F8F-4A55-B892-266FC5F1BFC5}"/>
+  <xr:revisionPtr revIDLastSave="821" documentId="8_{609684B2-EED8-49FB-857C-0C148933ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E09CB1A-A001-4B4E-B799-40489FACE501}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{D24CEB46-9FED-4B7E-B9DC-0B0B2305BA4C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="788">
   <si>
     <t>طريقة البد في الفلاتر</t>
   </si>
@@ -2819,14 +2819,428 @@
 </t>
   </si>
   <si>
-    <t>الدرس 12.2</t>
+    <t>تضعه فوق 
+ @override
+  Widget build(BuildContext context) {
+    return Scaffold(</t>
+  </si>
+  <si>
+    <t>استخدام القيمة المدخله في مربعين الحوار</t>
+  </si>
+  <si>
+    <t>اول شي تضع الفونكشن حق إضافة عنصر</t>
+  </si>
+  <si>
+    <t>تربط الفاريبول مع كنترول التيكست فيلد</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> nnNwoApp() {
+    setState(() {
+      nn.add(Bb(hh: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tt.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text, titl:ss.text ));
+    });
+  }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= TextEditingController();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> TextField( controller: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="178"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <t>تحط فاريبول تكون قيمتة ودجت التحكم بنص</t>
+  </si>
+  <si>
+    <t>String x = ' ali hassan ' ;</t>
+  </si>
+  <si>
+    <t>يكون النص داخل سنقل كوتشن</t>
+  </si>
+  <si>
+    <t>String y = " courses 4 arab " ;</t>
+  </si>
+  <si>
+    <t>او دبل كوتيشن</t>
+  </si>
+  <si>
+    <t>String z = """ اتعلم فى ساعة """ ;</t>
+  </si>
+  <si>
+    <t>او تربل كوتيشن</t>
+  </si>
+  <si>
+    <t>String w = ''' رايق من نوعة فاخر ''' ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">او تربل كوتيشن من نوع السنقل </t>
+  </si>
+  <si>
+    <t>الـ  Methods حق   String</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>String x="fahad";
+  print(x.length);
+}</t>
+  </si>
+  <si>
+    <t>لمعرفة عدد الحروف للكلمة ويبدا العد من 1</t>
+  </si>
+  <si>
+    <t>indexOf()</t>
+  </si>
+  <si>
+    <t>String x="fahad";
+  print(x.indexOf("a"));</t>
+  </si>
+  <si>
+    <t>يطلع رقم الخانة الي فيها الحرف</t>
+  </si>
+  <si>
+    <t>toUpperCase()</t>
+  </si>
+  <si>
+    <t>تحويل الــ string الى حرف كبيرة</t>
+  </si>
+  <si>
+    <t>String x="fahad";
+  print(x.toUpperCase());</t>
+  </si>
+  <si>
+    <t>String x="FAHAD";
+  print(x.toLowerCase());</t>
+  </si>
+  <si>
+    <t>toLowerCase()</t>
+  </si>
+  <si>
+    <t>تحويل الــ string الى حرف صغيرة</t>
+  </si>
+  <si>
+    <t>trim()</t>
+  </si>
+  <si>
+    <t>لإزالة المسافات الفارغة من البداية والنهاية</t>
+  </si>
+  <si>
+    <t>String x="       FAHAD               ";
+  print(x.toLowerCase().trim());</t>
+  </si>
+  <si>
+    <t>substring(int, int)</t>
+  </si>
+  <si>
+    <t>لإستخراج جزء من الــ string
+ويتم تحديد index البداية والنهاية
+و العد يبدأ من الصفر</t>
+  </si>
+  <si>
+    <t>String x="FAHADasere";
+  print(x.substring(0, 2));</t>
+  </si>
+  <si>
+    <t>replaceRange()</t>
+  </si>
+  <si>
+    <t>لإستبدال text بــ text أخر</t>
+  </si>
+  <si>
+    <t>String x="FAHADasere";
+  print(x.replaceRange(0,2,"ali"));</t>
+  </si>
+  <si>
+    <t>String text = '1';
+print(text.padLeft(2, '0'));</t>
+  </si>
+  <si>
+    <t>لاضافة اصفار قبل التكست</t>
+  </si>
+  <si>
+    <t>contains()</t>
+  </si>
+  <si>
+    <t>contains= =يحتوى على
+تكون نتيجتها true أو false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+String text = "528";
+print(text.contains("2"));</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>لتحويل الـ number الى string</t>
+  </si>
+  <si>
+    <t>int x = 3 ;
+print(x.toString());</t>
+  </si>
+  <si>
+    <t>String text = 'dartlang';
+print('$text has ${text.length} letters');</t>
+  </si>
+  <si>
+    <t>طباعة مجموعة من الأوامر داخل التكست</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> int.parse()</t>
+  </si>
+  <si>
+    <t>String y = "+3" ;
+print( int.parse(y) );</t>
+  </si>
+  <si>
+    <t>لتحويل التكست الى نمبر</t>
+  </si>
+  <si>
+    <t>Numbers Methods</t>
+  </si>
+  <si>
+    <t>الدرس 14</t>
+  </si>
+  <si>
+    <t>int x = 27 ;</t>
+  </si>
+  <si>
+    <t>double y = 5.6;</t>
+  </si>
+  <si>
+    <t>num w = 7;</t>
+  </si>
+  <si>
+    <t>عدد صحيح</t>
+  </si>
+  <si>
+    <t>عدد كسري</t>
+  </si>
+  <si>
+    <t>عدد صحيح اوكسري</t>
+  </si>
+  <si>
+    <t>round()</t>
+  </si>
+  <si>
+    <t>التقريب الى أقرب رقم صحيح</t>
+  </si>
+  <si>
+    <t>floor()</t>
+  </si>
+  <si>
+    <t>التقريب الى أقرب رقم صحيح للأسفل</t>
+  </si>
+  <si>
+    <t>ceil()</t>
+  </si>
+  <si>
+    <t>التقريب الى أقرب رقم صحيح للأعلى</t>
+  </si>
+  <si>
+    <t>truncate()</t>
+  </si>
+  <si>
+    <t>يتم حذف جميع الأرقام العشرية</t>
+  </si>
+  <si>
+    <t>abs()</t>
+  </si>
+  <si>
+    <t>للحصول على القيمة الموجبة للرقم اذا كان سالب</t>
+  </si>
+  <si>
+    <t>isOdd</t>
+  </si>
+  <si>
+    <t>integer numbers تتعامل فقط مع الـ</t>
+  </si>
+  <si>
+    <t>isEven</t>
+  </si>
+  <si>
+    <t>لمعرفة اذا كان العدد زوجى أو لا</t>
+  </si>
+  <si>
+    <t>أنواع  فاريبول النمبر</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> double y = 5.6;
+print( y.round());</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> double y = 5.3;
+print( y.ceil());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  double y = 5.3;
+print( y.truncate());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  double y = -5.3;
+print( y.abs());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int y = 5;
+print( y.isOdd);</t>
+  </si>
+  <si>
+    <t>لمعرفة اذا كان العدد فردى أو لا 
+تتعامل فقط مع الـ
+integer numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int y = 4;
+print( y.isEven);</t>
+  </si>
+  <si>
+    <t>isNegative</t>
+  </si>
+  <si>
+    <t>لمعرفة اذا كان العدد سالب ام لا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int y = -4;
+print( y.isNegative);</t>
+  </si>
+  <si>
+    <t>remainder()</t>
+  </si>
+  <si>
+    <t>لمعرفة باقي القسمة</t>
+  </si>
+  <si>
+    <t>print( y.remainder(5));</t>
+  </si>
+  <si>
+    <t>طباعة ارقام عشوائية</t>
+  </si>
+  <si>
+    <t>import "dart:math";</t>
+  </si>
+  <si>
+    <t>أولا استدعي مكتبة الأرقام من الدارك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   
+  double y =Random().nextDouble();
+print (y);</t>
+  </si>
+  <si>
+    <t>Random().nextDouble()</t>
+  </si>
+  <si>
+    <t>رقم عشوائي من تحت الصفر الى صفر 
+يعني هللات
+0.2576353599529644</t>
+  </si>
+  <si>
+    <t>من الصفر الى الرقم الي انت تحدده</t>
+  </si>
+  <si>
+    <t>Random().nextInt(الرقم المحدد)</t>
+  </si>
+  <si>
+    <t>مثال 
+  double y = Random().nextDouble()     ;
+  print(   ( y+5).round()   );</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  int y =Random().nextInt(20)    ;
+  print(    y  );</t>
+  </si>
+  <si>
+    <t>انتبه من نوع الفاريبول هل هو رقم ولا قيمة</t>
+  </si>
+  <si>
+    <t>Random().nextBool()</t>
+  </si>
+  <si>
+    <t>لارجاع القيمه ترو ولا فولس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bool y =Random().nextBool()   ;
+  print(    y  );
+  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2928,8 +3342,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2960,8 +3392,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3021,12 +3459,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3100,6 +3564,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3127,11 +3597,80 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3454,8 +3993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D101E8F-C8B0-4FAC-ABAE-29C6B4E5ADAC}">
   <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:C141"/>
+    <sheetView rightToLeft="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="A268" sqref="A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3466,10 +4005,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -3565,11 +4104,11 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -3602,11 +4141,11 @@
       <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -3633,10 +4172,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="32"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -3695,10 +4234,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="27"/>
+      <c r="B36" s="29"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -3733,10 +4272,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="27"/>
+      <c r="B49" s="29"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -3755,10 +4294,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="27"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3808,10 +4347,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="25"/>
+      <c r="B64" s="27"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -3888,11 +4427,11 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -3950,11 +4489,11 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
@@ -4000,11 +4539,11 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
@@ -4031,11 +4570,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
@@ -4102,10 +4641,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B108" s="25"/>
+      <c r="B108" s="27"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.3">
@@ -4147,11 +4686,11 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="27"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
@@ -4194,11 +4733,11 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="25" t="s">
+      <c r="A122" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
@@ -4241,11 +4780,11 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="25" t="s">
+      <c r="A129" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
+      <c r="B129" s="27"/>
+      <c r="C129" s="27"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
@@ -4272,11 +4811,11 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="25" t="s">
+      <c r="A134" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B134" s="25"/>
-      <c r="C134" s="25"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
@@ -4319,11 +4858,11 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="25" t="s">
+      <c r="A141" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B141" s="25"/>
-      <c r="C141" s="25"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="27"/>
     </row>
     <row r="142" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
@@ -4342,11 +4881,11 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="25" t="s">
+      <c r="A146" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B146" s="25"/>
-      <c r="C146" s="25"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="27"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
@@ -4382,11 +4921,11 @@
       <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="26" t="s">
+      <c r="A153" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
     </row>
     <row r="154" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
@@ -4429,11 +4968,11 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="27" t="s">
+      <c r="A160" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B160" s="27"/>
-      <c r="C160" s="27"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
@@ -4468,11 +5007,11 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="27" t="s">
+      <c r="A166" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="B166" s="27"/>
-      <c r="C166" s="27"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="29"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
@@ -4507,11 +5046,11 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="27" t="s">
+      <c r="A172" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B172" s="27"/>
-      <c r="C172" s="27"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="29"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
@@ -4554,11 +5093,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="25" t="s">
+      <c r="A179" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="B179" s="25"/>
-      <c r="C179" s="25"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="27"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
@@ -4582,11 +5121,11 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="25" t="s">
+      <c r="A186" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="B186" s="25"/>
-      <c r="C186" s="25"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="27"/>
     </row>
     <row r="187" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
@@ -4640,11 +5179,11 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="26" t="s">
+      <c r="A194" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="26"/>
-      <c r="C194" s="26"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="28"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
@@ -4671,11 +5210,11 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="25" t="s">
+      <c r="A200" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B200" s="25"/>
-      <c r="C200" s="25"/>
+      <c r="B200" s="27"/>
+      <c r="C200" s="27"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
@@ -4710,11 +5249,11 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="25" t="s">
+      <c r="A206" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="B206" s="25"/>
-      <c r="C206" s="25"/>
+      <c r="B206" s="27"/>
+      <c r="C206" s="27"/>
     </row>
     <row r="207" spans="1:3" ht="70" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
@@ -4733,11 +5272,11 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="25" t="s">
+      <c r="A211" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="B211" s="25"/>
-      <c r="C211" s="25"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="27"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
@@ -4783,7 +5322,7 @@
       <c r="A217" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B217" s="31" t="s">
+      <c r="B217" s="33" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4791,7 +5330,7 @@
       <c r="A218" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B218" s="31"/>
+      <c r="B218" s="33"/>
     </row>
     <row r="219" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="14" t="s">
@@ -4831,11 +5370,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="25" t="s">
+      <c r="A225" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="B225" s="25"/>
-      <c r="C225" s="25"/>
+      <c r="B225" s="27"/>
+      <c r="C225" s="27"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
@@ -4910,11 +5449,11 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="27" t="s">
+      <c r="A237" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B237" s="27"/>
-      <c r="C237" s="27"/>
+      <c r="B237" s="29"/>
+      <c r="C237" s="29"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
@@ -4989,11 +5528,11 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="25" t="s">
+      <c r="A248" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="B248" s="25"/>
-      <c r="C248" s="25"/>
+      <c r="B248" s="27"/>
+      <c r="C248" s="27"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
@@ -5012,11 +5551,11 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="25" t="s">
+      <c r="A253" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="B253" s="25"/>
-      <c r="C253" s="25"/>
+      <c r="B253" s="27"/>
+      <c r="C253" s="27"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
@@ -5043,11 +5582,11 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="25" t="s">
+      <c r="A258" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="B258" s="25"/>
-      <c r="C258" s="25"/>
+      <c r="B258" s="27"/>
+      <c r="C258" s="27"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
@@ -5074,16 +5613,16 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="25" t="s">
+      <c r="A263" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B263" s="25"/>
+      <c r="B263" s="27"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="27" t="s">
+      <c r="A264" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="B264" s="27"/>
+      <c r="B264" s="29"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
@@ -5092,7 +5631,7 @@
       <c r="B265" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C265" s="31" t="s">
+      <c r="C265" s="33" t="s">
         <v>503</v>
       </c>
     </row>
@@ -5103,7 +5642,7 @@
       <c r="B266" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C266" s="32"/>
+      <c r="C266" s="34"/>
     </row>
     <row r="267" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
@@ -5112,7 +5651,7 @@
       <c r="B267" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C267" s="32"/>
+      <c r="C267" s="34"/>
     </row>
     <row r="268" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
@@ -5123,11 +5662,11 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="29" t="s">
+      <c r="A270" s="31" t="s">
         <v>539</v>
       </c>
-      <c r="B270" s="33"/>
-      <c r="C270" s="30"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="32"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
@@ -5177,11 +5716,11 @@
       <c r="A276" s="3"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="25" t="s">
+      <c r="A279" s="27" t="s">
         <v>504</v>
       </c>
-      <c r="B279" s="25"/>
-      <c r="C279" s="25"/>
+      <c r="B279" s="27"/>
+      <c r="C279" s="27"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
@@ -5219,11 +5758,11 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="25" t="s">
+      <c r="A285" s="27" t="s">
         <v>585</v>
       </c>
-      <c r="B285" s="25"/>
-      <c r="C285" s="25"/>
+      <c r="B285" s="27"/>
+      <c r="C285" s="27"/>
     </row>
     <row r="286" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
@@ -5250,11 +5789,11 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="25" t="s">
+      <c r="A290" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="B290" s="25"/>
-      <c r="C290" s="25"/>
+      <c r="B290" s="27"/>
+      <c r="C290" s="27"/>
     </row>
     <row r="291" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
@@ -5281,11 +5820,11 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="25" t="s">
+      <c r="A295" s="27" t="s">
         <v>613</v>
       </c>
-      <c r="B295" s="25"/>
-      <c r="C295" s="25"/>
+      <c r="B295" s="27"/>
+      <c r="C295" s="27"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
@@ -5312,11 +5851,11 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="25" t="s">
+      <c r="A301" s="27" t="s">
         <v>656</v>
       </c>
-      <c r="B301" s="25"/>
-      <c r="C301" s="25"/>
+      <c r="B301" s="27"/>
+      <c r="C301" s="27"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
@@ -5426,10 +5965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A033DF-C58C-4555-B362-B5A41B757F57}">
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D295"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5437,7 +5976,7 @@
     <col min="1" max="1" width="39" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -5449,11 +5988,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="5" spans="1:3" ht="154" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -5528,1430 +6067,1892 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
+        <v>702</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+    </row>
+    <row r="27" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>713</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
+        <v>721</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A34" s="26" t="s">
+        <v>724</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>737</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+    </row>
+    <row r="39" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="41" t="s">
+        <v>739</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>742</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="41" t="s">
+        <v>740</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>743</v>
+      </c>
+      <c r="C40" s="46"/>
+    </row>
+    <row r="41" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="41" t="s">
+        <v>741</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>744</v>
+      </c>
+      <c r="C41" s="46"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A43" s="44" t="s">
+        <v>745</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>746</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="s">
+        <v>747</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>748</v>
+      </c>
+      <c r="C44" s="25"/>
+    </row>
+    <row r="45" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A45" s="44" t="s">
+        <v>749</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>750</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A46" s="44" t="s">
+        <v>751</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>752</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A47" s="44" t="s">
+        <v>753</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>754</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A48" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>765</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="45"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A50" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>758</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="49"/>
+      <c r="B51" s="52" t="s">
+        <v>756</v>
+      </c>
+      <c r="C51" s="43"/>
+    </row>
+    <row r="52" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A52" s="44" t="s">
+        <v>767</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>768</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="53" t="s">
+        <v>770</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>771</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>772</v>
+      </c>
+      <c r="D53" s="59"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="58" t="s">
+        <v>773</v>
+      </c>
+      <c r="B54" s="56"/>
+      <c r="C54" s="57"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="60" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A56" s="42" t="s">
+        <v>777</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A57" s="42" t="s">
+        <v>780</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D57" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A58" s="42" t="s">
+        <v>785</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="25"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="70" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+    <row r="68" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A68" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="16" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="16" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="16" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="16" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    <row r="77" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="79" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="112" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="80" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="112" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+    <row r="81" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-    </row>
-    <row r="40" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+    </row>
+    <row r="84" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="70" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="85" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-    </row>
-    <row r="51" spans="1:3" ht="252" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+    </row>
+    <row r="95" spans="1:3" ht="252" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-    </row>
-    <row r="54" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+    </row>
+    <row r="98" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+    <row r="99" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+    <row r="100" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+    <row r="101" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+    <row r="102" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+    <row r="103" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+    <row r="104" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+    <row r="105" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+    <row r="106" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A63" s="23" t="s">
+    <row r="107" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A107" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B107" s="23" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="34" t="s">
+    <row r="108" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="40" t="s">
         <v>644</v>
       </c>
-      <c r="B64" s="34"/>
-    </row>
-    <row r="65" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="26" t="s">
-        <v>645</v>
-      </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
-        <v>648</v>
-      </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-    </row>
-    <row r="70" spans="1:3" ht="112" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="35" t="s">
-        <v>649</v>
-      </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="35" t="s">
-        <v>651</v>
-      </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-    </row>
-    <row r="79" spans="1:3" ht="112" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="35" t="s">
-        <v>652</v>
-      </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-    </row>
-    <row r="82" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-    </row>
-    <row r="100" spans="1:3" ht="98" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-    </row>
-    <row r="104" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="B104" s="31"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-    </row>
-    <row r="107" spans="1:3" ht="126" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>410</v>
-      </c>
+      <c r="B108" s="40"/>
     </row>
     <row r="109" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="39" t="s">
+        <v>648</v>
+      </c>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+    </row>
+    <row r="114" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="39" t="s">
+        <v>649</v>
+      </c>
+      <c r="B116" s="39"/>
+      <c r="C116" s="39"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="B122" s="39"/>
+      <c r="C122" s="39"/>
+    </row>
+    <row r="123" spans="1:3" ht="112" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="39" t="s">
+        <v>652</v>
+      </c>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+    </row>
+    <row r="126" spans="1:3" ht="84" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="24"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="24"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="B143" s="27"/>
+      <c r="C143" s="27"/>
+    </row>
+    <row r="144" spans="1:3" ht="98" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="B147" s="27"/>
+      <c r="C147" s="27"/>
+    </row>
+    <row r="148" spans="1:3" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="B148" s="33"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="B150" s="27"/>
+      <c r="C150" s="27"/>
+    </row>
+    <row r="151" spans="1:3" ht="126" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="27" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-    </row>
-    <row r="117" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-    </row>
-    <row r="121" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-    </row>
-    <row r="126" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="112" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="B133" s="25"/>
-      <c r="C133" s="25"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="27" t="s">
-        <v>451</v>
-      </c>
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
-    </row>
-    <row r="141" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="B144" s="25"/>
-      <c r="C144" s="25"/>
-    </row>
-    <row r="145" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="B146" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
-    </row>
-    <row r="149" spans="1:3" ht="70" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="98" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="27" t="s">
-        <v>479</v>
-      </c>
-      <c r="B154" s="27"/>
-      <c r="C154" s="27"/>
-    </row>
-    <row r="155" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>482</v>
-      </c>
+      <c r="B155" s="29"/>
+      <c r="C155" s="29"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>481</v>
+        <v>417</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A158" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="27" t="s">
-        <v>491</v>
-      </c>
-      <c r="B161" s="27"/>
-      <c r="C161" s="27"/>
-    </row>
-    <row r="162" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="B160" s="29"/>
+      <c r="C160" s="29"/>
+    </row>
+    <row r="161" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>492</v>
+        <v>423</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>485</v>
+        <v>424</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
-        <v>495</v>
+      <c r="A164" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="B164" s="29"/>
+      <c r="C164" s="29"/>
+    </row>
+    <row r="165" spans="1:3" ht="84" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="25" t="s">
-        <v>521</v>
-      </c>
-      <c r="B168" s="25"/>
-      <c r="C168" s="25"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
-        <v>524</v>
+      <c r="A169" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="B169" s="29"/>
+      <c r="C169" s="29"/>
+    </row>
+    <row r="170" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>526</v>
+        <v>434</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="112" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>527</v>
+        <v>436</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
-        <v>530</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>531</v>
-      </c>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="B177" s="27"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="25" t="s">
-        <v>532</v>
-      </c>
-      <c r="B178" s="25"/>
-      <c r="C178" s="25"/>
+      <c r="A178" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="179" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="25" t="s">
-        <v>561</v>
-      </c>
-      <c r="B183" s="25"/>
-      <c r="C183" s="25"/>
-    </row>
-    <row r="184" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A186" s="20" t="s">
-        <v>556</v>
+        <v>449</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="B184" s="29"/>
+      <c r="C184" s="29"/>
+    </row>
+    <row r="185" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="98" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="B190" s="25"/>
-      <c r="C190" s="25"/>
-    </row>
-    <row r="191" spans="1:3" ht="126" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>563</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="B188" s="27"/>
+      <c r="C188" s="27"/>
+    </row>
+    <row r="189" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="B190" s="3" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>566</v>
+      <c r="A192" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B192" s="27"/>
+      <c r="C192" s="27"/>
+    </row>
+    <row r="193" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="98" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>573</v>
+        <v>476</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="56" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="B198" s="29"/>
+      <c r="C198" s="29"/>
+    </row>
+    <row r="199" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
-        <v>581</v>
+        <v>480</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="27" t="s">
-        <v>583</v>
-      </c>
-      <c r="B201" s="27"/>
-      <c r="C201" s="27"/>
-    </row>
-    <row r="202" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>584</v>
+        <v>486</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="B205" s="25"/>
-      <c r="C205" s="25"/>
-    </row>
-    <row r="206" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A206" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A205" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="B205" s="29"/>
+      <c r="C205" s="29"/>
+    </row>
+    <row r="206" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="56" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>602</v>
+        <v>493</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>603</v>
+        <v>485</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>604</v>
+        <v>494</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>606</v>
+        <v>495</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="70" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>611</v>
-      </c>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="B212" s="27"/>
+      <c r="C212" s="27"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="B213" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="25" t="s">
-        <v>613</v>
-      </c>
-      <c r="B215" s="25"/>
-      <c r="C215" s="25"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>617</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="B219" s="29"/>
+      <c r="C219" s="29"/>
+    </row>
+    <row r="220" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A220" s="24" t="s">
+        <v>690</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="C220" s="19"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="B221" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="C221" s="19"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="C222" s="19"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="19"/>
+      <c r="B223" s="19"/>
+      <c r="C223" s="19"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="19"/>
+      <c r="B224" s="19"/>
+      <c r="C224" s="19"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="19"/>
+      <c r="B225" s="19"/>
+      <c r="C225" s="19"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="B228" s="27"/>
+      <c r="C228" s="27"/>
+    </row>
+    <row r="229" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="B233" s="27"/>
+      <c r="C233" s="27"/>
+    </row>
+    <row r="234" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A236" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="98" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="B240" s="27"/>
+      <c r="C240" s="27"/>
+    </row>
+    <row r="241" spans="1:3" ht="126" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="B251" s="29"/>
+      <c r="C251" s="29"/>
+    </row>
+    <row r="252" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="B255" s="27"/>
+      <c r="C255" s="27"/>
+    </row>
+    <row r="256" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="70" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B263" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="B265" s="27"/>
+      <c r="C265" s="27"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B268" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="25" t="s">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="27" t="s">
         <v>618</v>
       </c>
-      <c r="B220" s="25"/>
-      <c r="C220" s="25"/>
-    </row>
-    <row r="221" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
+      <c r="B270" s="27"/>
+      <c r="C270" s="27"/>
+    </row>
+    <row r="271" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B271" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="146" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
+    <row r="272" spans="1:3" ht="146" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B222" s="22" t="s">
+      <c r="B272" s="22" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A223" s="3" t="s">
+    <row r="273" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B273" s="3" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B274" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
+    <row r="275" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B275" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="84" x14ac:dyDescent="0.3">
-      <c r="A226" s="3" t="s">
+    <row r="276" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B276" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="25" t="s">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="27" t="s">
         <v>632</v>
       </c>
-      <c r="B228" s="25"/>
-      <c r="C228" s="25"/>
-    </row>
-    <row r="229" spans="1:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
+      <c r="B278" s="27"/>
+      <c r="C278" s="27"/>
+    </row>
+    <row r="279" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B279" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C279" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="D279" s="3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="3" t="s">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B280" s="3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+    <row r="281" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B281" s="3" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+    <row r="282" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B282" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+    <row r="283" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B283" s="3" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="25" t="s">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="27" t="s">
         <v>671</v>
       </c>
-      <c r="B237" s="25"/>
-      <c r="C237" s="25"/>
-    </row>
-    <row r="238" spans="1:4" ht="70" x14ac:dyDescent="0.3">
-      <c r="A238" s="3" t="s">
+      <c r="B287" s="27"/>
+      <c r="C287" s="27"/>
+    </row>
+    <row r="288" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B288" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C288" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="56" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+    <row r="289" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B289" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C289" s="3" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="84" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+    <row r="290" spans="1:3" ht="84" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B290" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C290" s="3" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="56" x14ac:dyDescent="0.3">
-      <c r="A241" s="3" t="s">
+    <row r="291" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B291" s="3" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
+    <row r="292" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A292" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B292" s="3" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="71" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="31" t="s">
+    <row r="293" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="B243" s="32"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B245" s="1" t="s">
-        <v>686</v>
+      <c r="B293" s="34"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B295" s="1" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A111:C111"/>
+  <mergeCells count="46">
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A113:C113"/>
     <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A112:C112"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A255:C255"/>
     <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A219:C219"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
